--- a/11-CollaborationList/ZZ0-removeFROMjiscmail.xlsx
+++ b/11-CollaborationList/ZZ0-removeFROMjiscmail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050110249183/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{576770AA-F332-1144-8496-E8324FB54B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{576770AA-F332-1144-8496-E8324FB54B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C7072B-BE88-C94F-A01E-D7BC54548ACC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ0-removeFROMjiscmail" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
@@ -160,19 +160,7 @@
     <t>London</t>
   </si>
   <si>
-    <t>anthea.macintosh-larocque18@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Anthea</t>
-  </si>
-  <si>
-    <t>Macintosh-Laroque</t>
-  </si>
-  <si>
     <t>A.</t>
-  </si>
-  <si>
-    <t>A.Macintosh-Laroque</t>
   </si>
   <si>
     <t>Mx</t>
@@ -782,8 +770,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q9" totalsRowShown="0">
-  <autoFilter ref="A1:Q9" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}" name="Table1" displayName="Table1" ref="A1:Q8" totalsRowShown="0">
+  <autoFilter ref="A1:Q8" xr:uid="{441F41B1-3955-7345-81ED-136E8F9AE8DF}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{76074AB2-37DE-6846-A45C-0535DE01BA25}" name="Title"/>
     <tableColumn id="2" xr3:uid="{B67FEE32-D589-444B-BA62-7224D1002356}" name="Name"/>
@@ -1124,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A38D86E-A0CA-AC4E-9E28-0478CB9EC53A}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1281,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
@@ -1322,22 +1310,22 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
@@ -1360,13 +1348,13 @@
         <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1383,56 +1371,27 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1442,14 +1401,13 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{8BB9C964-B6F4-1C47-A836-A6D321A2EBCE}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{DCAEEB4D-0415-574E-AED0-C97FC91EAEE2}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{F893D344-8ACA-014D-ABE1-A79F2E3DE548}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{CE6DE710-FEA5-314F-B94E-29BD89C3420D}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{FF2A46A8-AD31-3F48-95DF-0981569A8EAA}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{56160A83-74A9-3F4D-91EA-41E2B97C91FE}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{4C539B17-C76C-7B43-B16E-058FD80BE5E6}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{FF2A46A8-AD31-3F48-95DF-0981569A8EAA}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{56160A83-74A9-3F4D-91EA-41E2B97C91FE}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{4C539B17-C76C-7B43-B16E-058FD80BE5E6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>